--- a/financial_models/Opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/9959.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{171D61C6-F871-40E7-BFEB-3092EDCDF5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E836C58-627E-433F-B50D-E16178694FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,8 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="32"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1451,10 +1440,6 @@
 3. 公司背靠腾讯，可以与腾讯进行战术合作</t>
   </si>
   <si>
-    <t>1. 联易融过桥资金的风险问题 (先买入客户的应收账款，再转卖)
-2. 2023Q2貸款總體需求指數下降</t>
-  </si>
-  <si>
     <t>1. 很多资金借给了目前困难的房地产行业。而且业务细节比较复杂，容易有金融风险
 2. 经济困难导致贷款需求下降、ABS发行量放缓
 3. 规模上升、竞争激烈。平均费率下降</t>
@@ -1468,6 +1453,11 @@
     <t>1. 中国供应链金融市场的发展迅猛，资金来源渠道也越来越多
 2. 理论上，随着利率下行, ABS 发行量将显著回暖
 3. 通过建立生态体系，可能会有"飞轮效应"</t>
+  </si>
+  <si>
+    <t>1. 联易融过桥资金的风险问题 (先买入客户的应收账款，再转卖)
+2. 2023Q2貸款總體需求指數下降
+3. 下跌快得很吓人</t>
   </si>
 </sst>
 </file>
@@ -1475,34 +1465,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\x"/>
-    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="0.0%"/>
-    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2328,7 +2318,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="394">
@@ -2376,7 +2366,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2476,7 +2466,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2493,8 +2483,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2503,7 +2493,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2528,7 +2518,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2547,16 +2537,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2586,14 +2576,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2687,7 +2677,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2720,7 +2710,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2740,7 +2730,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2748,7 +2738,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2758,7 +2748,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2779,7 +2769,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2788,7 +2778,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2833,10 +2823,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2845,13 +2835,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2860,7 +2850,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2917,7 +2907,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2959,7 +2949,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2971,13 +2961,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2989,10 +2979,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3069,7 +3059,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3088,7 +3078,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3107,6 +3097,134 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3126,137 +3244,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10524,17 +10514,17 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10569,27 +10559,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="351" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="353" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10606,10 +10596,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>45177</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10617,10 +10607,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>2017360000</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10643,11 +10633,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
         <v>3651.4216000000001</v>
       </c>
-      <c r="J6" s="350"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10722,30 +10712,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>396</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10770,7 +10760,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>2.7923155765197571</v>
+        <v>2.792905996540652</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10814,28 +10804,28 @@
         <f>I4</f>
         <v>1.81</v>
       </c>
-      <c r="C16" s="373">
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.38932125930526129</v>
-      </c>
-      <c r="E16" s="354" t="s">
+        <v>0.38951496487024051</v>
+      </c>
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>3.1205344151687853</v>
       </c>
-      <c r="G16" s="354" t="s">
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>-1.3105344151687852</v>
       </c>
-      <c r="I16" s="367">
+      <c r="I16" s="336">
         <v>0</v>
       </c>
       <c r="J16" s="166">
@@ -10846,21 +10836,21 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>2.3972262327854361</v>
-      </c>
-      <c r="C17" s="374"/>
+        <v>2.397518405345946</v>
+      </c>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.72330818238334915</v>
-      </c>
-      <c r="I17" s="368"/>
+        <v>-0.72301600982283931</v>
+      </c>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>0</v>
@@ -10869,21 +10859,21 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>1.81</v>
-      </c>
-      <c r="C18" s="375"/>
+        <v>1.8</v>
+      </c>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.38932125930526129</v>
-      </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+        <v>0.39834560356396409</v>
+      </c>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-1.3105344151687852</v>
-      </c>
-      <c r="I18" s="369"/>
+        <v>-1.3205344151687852</v>
+      </c>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>0</v>
@@ -10921,84 +10911,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="357" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
+      <c r="C22" s="366" t="s">
         <v>409</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
         <v>407</v>
       </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
+      <c r="C23" s="339" t="s">
+        <v>412</v>
+      </c>
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
         <v>413</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
-        <v>410</v>
-      </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="321" t="s">
-        <v>411</v>
-      </c>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+      <c r="C24" s="369" t="s">
+        <v>410</v>
+      </c>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="322" t="s">
-        <v>412</v>
-      </c>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+      <c r="C25" s="370" t="s">
+        <v>411</v>
+      </c>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11038,212 +11028,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341"/>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="C28" s="355">
+        <v>45180</v>
+      </c>
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
-        <v/>
-      </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+        <v>Action_Planning</v>
+      </c>
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
-        <v>8.2272727272727275E-2</v>
-      </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+        <v>8.1818181818181818E-2</v>
+      </c>
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
-        <v>0.155</v>
-      </c>
-      <c r="J29" s="370"/>
+        <v>0.15454545454545454</v>
+      </c>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
+      <c r="C30" s="321">
         <v>30000</v>
       </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321">
         <v>30000</v>
       </c>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
         <v>60000</v>
       </c>
-      <c r="J30" s="376"/>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
-        <v>1.81</v>
-      </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363">
+      <c r="C31" s="323">
+        <v>1.8</v>
+      </c>
+      <c r="D31" s="322"/>
+      <c r="E31" s="323">
         <v>1.6</v>
       </c>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
-        <v>3651.4216000000001</v>
-      </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+        <v>3631.248</v>
+      </c>
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
         <v>3227.7759999999998</v>
       </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
-        <v>54300</v>
-      </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+        <v>54000</v>
+      </c>
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>48000</v>
       </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
-        <v>102300</v>
-      </c>
-      <c r="J33" s="329"/>
+        <v>102000</v>
+      </c>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="F34" s="365"/>
+        <v>1.7</v>
+      </c>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="J34" s="332"/>
+        <v>1.7</v>
+      </c>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>3439.5988000000002</v>
-      </c>
-      <c r="F35" s="377"/>
+        <v>3429.5120000000002</v>
+      </c>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>3439.5988000000002</v>
-      </c>
-      <c r="J35" s="331"/>
+        <v>3429.5120000000002</v>
+      </c>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="326">
+      <c r="C37" s="374">
         <f>C31</f>
-        <v>1.81</v>
-      </c>
-      <c r="D37" s="327"/>
+        <v>1.8</v>
+      </c>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="371" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
-        <v>2.876671479342523</v>
-      </c>
-      <c r="J37" s="325"/>
+        <v>2.8770220864151352</v>
+      </c>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="374">
         <f>E34</f>
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="D38" s="327"/>
+        <v>1.7</v>
+      </c>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
+      <c r="G38" s="371" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
-        <v>2.2338524612158057</v>
-      </c>
-      <c r="J38" s="325"/>
+        <v>2.2343247972325218</v>
+      </c>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11367,11 +11359,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.58932125930526125</v>
+        <v>0.59834560356396405</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.68719734858798986</v>
+        <v>0.69236593318537376</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11386,11 +11378,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>0.23417263050596993</v>
+        <v>0.24129155401806757</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>0.31017739660751054</v>
+        <v>0.31430870425442459</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11415,11 +11407,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.68093798106097692</v>
+        <v>0.68255230783805698</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.69832606659940388</v>
+        <v>0.69925605582383366</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -12445,14 +12437,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12469,38 +12485,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12605,12 +12597,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.6640625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.6328125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16152,18 +16144,18 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
     <col min="7" max="7" width="2" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16363,7 +16355,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9">
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16388,7 +16380,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9">
+    <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16413,7 +16405,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9">
+    <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16439,7 +16431,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9">
+    <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16464,7 +16456,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9">
+    <row r="16" spans="1:11" ht="14">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16489,7 +16481,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9">
+    <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
         <v>341</v>
       </c>
@@ -16510,7 +16502,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9">
+    <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16529,7 +16521,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9">
+    <row r="19" spans="2:10" ht="14">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16553,7 +16545,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="13.9">
+    <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16577,7 +16569,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9">
+    <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16862,7 +16854,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9">
+    <row r="33" spans="2:10" ht="14">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16891,7 +16883,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9">
+    <row r="34" spans="2:10" ht="14">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16917,7 +16909,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9">
+    <row r="35" spans="2:10" ht="14">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16942,7 +16934,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9">
+    <row r="36" spans="2:10" ht="14">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16966,7 +16958,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9">
+    <row r="37" spans="2:10" ht="14">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -17010,7 +17002,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9">
+    <row r="39" spans="2:10" ht="14">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17259,14 +17251,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9">
+    <row r="51" spans="2:10" ht="14">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9">
+    <row r="52" spans="2:10" ht="14">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17281,7 +17273,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9">
+    <row r="53" spans="2:10" ht="14">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17311,7 +17303,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.25" thickBot="1">
+    <row r="55" spans="2:10" ht="14.5" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17326,12 +17318,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.25" thickTop="1">
+    <row r="56" spans="2:10" ht="14.5" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>624702</v>
       </c>
@@ -17346,7 +17338,7 @@
         <v>6.6461017976972236E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="13.9">
+    <row r="57" spans="2:10" ht="14">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17354,7 +17346,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17370,7 +17362,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17387,7 +17379,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9">
+    <row r="60" spans="2:10" ht="14">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17422,7 +17414,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9">
+    <row r="62" spans="2:10" ht="14">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17443,16 +17435,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9">
+    <row r="63" spans="2:10" ht="14">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>-3811608.7897862745</v>
       </c>
-      <c r="E63" s="376"/>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17564,14 +17556,14 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.6328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19172,12 +19164,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="19" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="19" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19231,7 +19223,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="13.9">
+    <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
         <v>384</v>
       </c>
@@ -19255,7 +19247,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="13.9">
+    <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
         <v>385</v>
       </c>
@@ -19279,7 +19271,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="13.9">
+    <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
         <v>386</v>
       </c>
@@ -19303,7 +19295,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="13.9">
+    <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
         <v>387</v>
       </c>
@@ -19327,7 +19319,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="13.9">
+    <row r="23" spans="2:19" ht="14">
       <c r="B23" s="3" t="s">
         <v>345</v>
       </c>
@@ -19392,7 +19384,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13.15">
+    <row r="46" spans="2:13" ht="13">
       <c r="B46" s="297" t="s">
         <v>348</v>
       </c>
@@ -19485,7 +19477,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13.15">
+    <row r="71" spans="2:13" ht="13">
       <c r="B71" s="297" t="s">
         <v>358</v>
       </c>
@@ -19594,7 +19586,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13.15">
+    <row r="78" spans="2:13" ht="13">
       <c r="B78" s="297" t="s">
         <v>357</v>
       </c>
@@ -19926,14 +19918,14 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20284,7 +20276,7 @@
         <f>C17*Data!C4/Common_Shares</f>
         <v>-0.30966312408295993</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20307,7 +20299,7 @@
         <f>C18*Data!C4/Common_Shares</f>
         <v>3.2140509689612576E-4</v>
       </c>
-      <c r="E18" s="355"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Common_Shares)</f>
         <v>2.9541328518459768</v>
@@ -20632,7 +20624,7 @@
       </c>
       <c r="C35" s="273">
         <f>Dashboard!C31</f>
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="D35" s="149" t="str">
         <f>D10</f>
@@ -20671,7 +20663,7 @@
       </c>
       <c r="G36" s="278">
         <f ca="1">C35*G35</f>
-        <v>0.17376</v>
+        <v>0.17280000000000001</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="43"/>
@@ -20698,7 +20690,7 @@
       </c>
       <c r="G37" s="275">
         <f ca="1">G34-G36</f>
-        <v>-0.30891065606174933</v>
+        <v>-0.30795065606174932</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>302</v>
@@ -20746,7 +20738,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-0.30273446976014584</v>
+        <v>-0.30179366346140929</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20759,7 +20751,7 @@
       <c r="E40" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="323"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>2.7542068295389823</v>
@@ -20774,7 +20766,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>2.6525273272415815</v>
+        <v>2.6535452927948482</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20803,7 +20795,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>2.7923155765197571</v>
+        <v>2.792905996540652</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20811,15 +20803,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>2.6871395539888465</v>
+        <v>2.6698362572639875</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.52288612658092049</v>
+        <v>0.52299668802332244</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">(C44*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>5.6331209263303172</v>
+        <v>5.6343120192723166</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20854,7 +20846,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.876671479342523</v>
+        <v>2.8770220864151352</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20862,15 +20854,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>0.21494151635541509</v>
+        <v>0.20466635969313005</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.57060411564723079</v>
+        <v>0.57067366055009661</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">(C46*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>5.8032976088823176</v>
+        <v>5.8040049114717025</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20879,7 +20871,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>2.2338524612158057</v>
+        <v>2.2343247972325218</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20887,15 +20879,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>19.053882977336794</v>
+        <v>19.040040339956903</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.44309731482086412</v>
+        <v>0.44319100535071504</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">(C47*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>4.5064967410642538</v>
+        <v>4.5074496154178529</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21833,16 +21825,16 @@
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21857,7 +21849,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.9">
+    <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21871,7 +21863,7 @@
       </c>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="13.9">
+    <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21885,7 +21877,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="13.9">
+    <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21900,7 +21892,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="13.9">
+    <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21915,7 +21907,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="13.9">
+    <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21930,7 +21922,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="13.9">
+    <row r="8" spans="1:7" ht="14">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21945,7 +21937,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="13.9">
+    <row r="9" spans="1:7" ht="14">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/9959.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E836C58-627E-433F-B50D-E16178694FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49335AF3-A1E0-415E-B6D9-6001BD15F36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -3099,84 +3099,39 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3184,6 +3139,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3200,9 +3156,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3215,6 +3178,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3227,26 +3199,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10559,33 +10559,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10596,10 +10596,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>45177</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10607,10 +10607,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>2017360000</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10633,11 +10633,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
-        <v>3651.4216000000001</v>
-      </c>
-      <c r="J6" s="361"/>
+        <v>3590.9007999999999</v>
+      </c>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
-        <v>1.7342820477175891E-2</v>
+        <v>1.7664268112637976E-2</v>
       </c>
       <c r="E7" s="93"/>
       <c r="F7" s="6"/>
@@ -10701,47 +10701,47 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.33893872779632422</v>
+        <v>0.33277084968657644</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.6514314364731448</v>
+        <v>3.5849840754037978</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>396</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="226">
-        <v>1.0820139646530151</v>
+        <v>1.0838026603062947</v>
       </c>
       <c r="J12" s="227" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -10760,7 +10760,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>2.792905996540652</v>
+        <v>2.8003784072163862</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10802,30 +10802,30 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>1.81</v>
-      </c>
-      <c r="C16" s="347">
+        <v>1.78</v>
+      </c>
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.38951496487024051</v>
-      </c>
-      <c r="E16" s="341" t="s">
+        <v>0.41879741692248107</v>
+      </c>
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>3.1205344151687853</v>
-      </c>
-      <c r="G16" s="341" t="s">
+        <v>3.1256866846314058</v>
+      </c>
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-1.3105344151687852</v>
-      </c>
-      <c r="I16" s="336">
+        <v>-1.3456866846314057</v>
+      </c>
+      <c r="I16" s="367">
         <v>0</v>
       </c>
       <c r="J16" s="166">
@@ -10836,21 +10836,21 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>2.397518405345946</v>
-      </c>
-      <c r="C17" s="348"/>
+        <v>2.4012161684350137</v>
+      </c>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.72301600982283931</v>
-      </c>
-      <c r="I17" s="337"/>
+        <v>-0.72447051619639202</v>
+      </c>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>0</v>
@@ -10861,19 +10861,19 @@
         <f>C37</f>
         <v>1.8</v>
       </c>
-      <c r="C18" s="349"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.39834560356396409</v>
-      </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+        <v>0.40081077895667572</v>
+      </c>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-1.3205344151687852</v>
-      </c>
-      <c r="I18" s="338"/>
+        <v>-1.3256866846314057</v>
+      </c>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>0</v>
@@ -10911,84 +10911,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>409</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>407</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>412</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>413</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="369" t="s">
+      <c r="C24" s="321" t="s">
         <v>410</v>
       </c>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="370" t="s">
+      <c r="C25" s="322" t="s">
         <v>411</v>
       </c>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11028,214 +11028,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355">
+      <c r="C28" s="341">
         <v>45180</v>
       </c>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>8.1818181818181818E-2</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
         <v>0.15454545454545454</v>
       </c>
-      <c r="J29" s="344"/>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>30000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349">
         <v>30000</v>
       </c>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>60000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>1.8</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323">
+      <c r="D31" s="339"/>
+      <c r="E31" s="363">
         <v>1.6</v>
       </c>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>3631.248</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>3227.7759999999998</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>54000</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>48000</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
         <v>102000</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.7</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.7</v>
       </c>
-      <c r="J34" s="328"/>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>3429.5120000000002</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>3429.5120000000002</v>
       </c>
-      <c r="J35" s="324"/>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>C31</f>
         <v>1.8</v>
       </c>
-      <c r="D37" s="375"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
-        <v>2.8770220864151352</v>
-      </c>
-      <c r="J37" s="373"/>
+        <v>2.8814594021220161</v>
+      </c>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
         <v>1.7</v>
       </c>
-      <c r="D38" s="375"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
-        <v>2.2343247972325218</v>
-      </c>
-      <c r="J38" s="373"/>
+        <v>2.240302725773109</v>
+      </c>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11359,11 +11359,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.59834560356396405</v>
+        <v>0.60081077895667567</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.69236593318537376</v>
+        <v>0.69497611889530364</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11378,11 +11378,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>0.24129155401806757</v>
+        <v>0.2446126254295049</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>0.31430870425442459</v>
+        <v>0.3178251328077113</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11407,11 +11407,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.68255230783805698</v>
+        <v>0.6831309325184719</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.69925605582383366</v>
+        <v>0.69986871725015543</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -12437,6 +12437,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12453,46 +12493,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -16213,7 +16213,7 @@
       </c>
       <c r="I4" s="139">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>5.0414488792804129</v>
+        <v>5.0497829840065851</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -16233,11 +16233,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="193">
         <f>E49-I49-E53</f>
-        <v>5135078.5397862736</v>
+        <v>5135066.74063545</v>
       </c>
       <c r="E6" s="149">
         <f>1-D6/D3</f>
-        <v>0.4535762340702858</v>
+        <v>0.45357748961805933</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16258,7 +16258,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.7542068295389823</v>
+        <v>2.7587535166510064</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -17283,11 +17283,11 @@
       </c>
       <c r="D53" s="54">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0.33893872779632422</v>
+        <v>0.33277084968657639</v>
       </c>
       <c r="E53" s="51">
         <f>MAX(C53,C53*Dashboard!I10)</f>
-        <v>-648.38978627436825</v>
+        <v>-636.59063545042068</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -17323,7 +17323,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>624702</v>
       </c>
@@ -17346,7 +17346,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17362,7 +17362,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17440,11 +17440,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>-3811608.7897862745</v>
-      </c>
-      <c r="E63" s="350"/>
+        <v>-3872117.7906354507</v>
+      </c>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20241,7 +20241,7 @@
       </c>
       <c r="G15" s="199">
         <f>C15+C16+C17+C18</f>
-        <v>5818077.689786274</v>
+        <v>5818065.8906354504</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -20261,7 +20261,7 @@
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Common_Shares</f>
-        <v>2.8840056756286798</v>
+        <v>2.8839998268209195</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20276,7 +20276,7 @@
         <f>C17*Data!C4/Common_Shares</f>
         <v>-0.30966312408295993</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20293,20 +20293,20 @@
       </c>
       <c r="C18" s="51">
         <f>-Asset_Model!E53</f>
-        <v>648.38978627436825</v>
+        <v>636.59063545042068</v>
       </c>
       <c r="D18" s="106">
         <f>C18*Data!C4/Common_Shares</f>
-        <v>3.2140509689612576E-4</v>
-      </c>
-      <c r="E18" s="342"/>
+        <v>3.1555628913551407E-4</v>
+      </c>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Common_Shares)</f>
         <v>2.9541328518459768</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>-7.0127176217296694E-2</v>
+        <v>-7.0133025025057305E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20365,11 +20365,11 @@
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>2.759073902661668</v>
+        <v>2.7590680538539081</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>2.9853564921896187</v>
+        <v>2.9902852967329765</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20387,11 +20387,11 @@
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>2.759073902661668</v>
+        <v>2.7590680538539081</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>2.9853564921896187</v>
+        <v>2.9902852967329765</v>
       </c>
       <c r="I23" s="43"/>
     </row>
@@ -20404,7 +20404,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>2.9853564921896187</v>
+        <v>2.9902852967329765</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20751,10 +20751,10 @@
       <c r="E40" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>2.7542068295389823</v>
+        <v>2.7587535166510064</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20766,7 +20766,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>2.6535452927948482</v>
+        <v>2.6628596251526484</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20795,7 +20795,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>2.792905996540652</v>
+        <v>2.8003784072163862</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20803,15 +20803,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>2.6698362572639875</v>
+        <v>2.4506727156342794</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.52299668802332244</v>
+        <v>0.52353050674906654</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">(C44*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>5.6343120192723166</v>
+        <v>5.6400629185255022</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20828,15 +20828,15 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-3.3994176043600217</v>
+        <v>-3.3995890139541789</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.59506702772084885</v>
+        <v>0.59408493582822208</v>
       </c>
       <c r="G45" s="223">
         <f>(C45*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>6.0520963035466488</v>
+        <v>6.042107992253591</v>
       </c>
       <c r="I45" s="43"/>
     </row>
@@ -20846,7 +20846,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.8770220864151352</v>
+        <v>2.8814594021220161</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20854,15 +20854,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>0.20466635969313005</v>
+        <v>7.4451612100931097E-2</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.57067366055009661</v>
+        <v>0.57061054133376177</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">(C46*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>5.8040049114717025</v>
+        <v>5.8033629609718966</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20871,7 +20871,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>2.2343247972325218</v>
+        <v>2.240302725773109</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20879,15 +20879,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>19.040040339956903</v>
+        <v>18.864675224734309</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.44319100535071504</v>
+        <v>0.4436433670255695</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">(C47*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>4.5074496154178529</v>
+        <v>4.512050334820402</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/9959.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49335AF3-A1E0-415E-B6D9-6001BD15F36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F022FF-AFA8-4195-89B0-35F4059A3704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3099,6 +3099,134 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3116,137 +3244,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10514,8 +10514,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:J23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10559,27 +10559,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="351" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="353" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10596,10 +10596,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>45177</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10607,10 +10607,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>2017360000</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10633,11 +10633,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
         <v>3590.9007999999999</v>
       </c>
-      <c r="J6" s="350"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10712,30 +10712,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>396</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10804,28 +10804,28 @@
         <f>I4</f>
         <v>1.78</v>
       </c>
-      <c r="C16" s="373">
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>0.41879741692248107</v>
       </c>
-      <c r="E16" s="354" t="s">
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>3.1256866846314058</v>
       </c>
-      <c r="G16" s="354" t="s">
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>-1.3456866846314057</v>
       </c>
-      <c r="I16" s="367">
+      <c r="I16" s="336">
         <v>0</v>
       </c>
       <c r="J16" s="166">
@@ -10838,19 +10838,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>2.4012161684350137</v>
       </c>
-      <c r="C17" s="374"/>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>-0.72447051619639202</v>
       </c>
-      <c r="I17" s="368"/>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>0</v>
@@ -10859,21 +10859,21 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>1.8</v>
-      </c>
-      <c r="C18" s="375"/>
+        <v>1.6</v>
+      </c>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.40081077895667572</v>
-      </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+        <v>0.60091212632626001</v>
+      </c>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-1.3256866846314057</v>
-      </c>
-      <c r="I18" s="369"/>
+        <v>-1.5256866846314057</v>
+      </c>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>0</v>
@@ -10911,84 +10911,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="357" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
+      <c r="C22" s="366" t="s">
         <v>409</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
         <v>407</v>
       </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
+      <c r="C23" s="339" t="s">
         <v>412</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
         <v>413</v>
       </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="321" t="s">
+      <c r="C24" s="369" t="s">
         <v>410</v>
       </c>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="370" t="s">
         <v>411</v>
       </c>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11028,214 +11028,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341">
+      <c r="C28" s="355">
         <v>45180</v>
       </c>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
         <v>8.1818181818181818E-2</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
         <v>0.15454545454545454</v>
       </c>
-      <c r="J29" s="370"/>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
+      <c r="C30" s="321">
         <v>30000</v>
       </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321">
         <v>30000</v>
       </c>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
         <v>60000</v>
       </c>
-      <c r="J30" s="376"/>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
+      <c r="C31" s="323">
         <v>1.8</v>
       </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363">
+      <c r="D31" s="322"/>
+      <c r="E31" s="323">
         <v>1.6</v>
       </c>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>3631.248</v>
       </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
         <v>3227.7759999999998</v>
       </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>54000</v>
       </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>48000</v>
       </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>102000</v>
       </c>
-      <c r="J33" s="329"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.7</v>
       </c>
-      <c r="F34" s="365"/>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.7</v>
       </c>
-      <c r="J34" s="332"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>3429.5120000000002</v>
       </c>
-      <c r="F35" s="377"/>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>3429.5120000000002</v>
       </c>
-      <c r="J35" s="331"/>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="326">
-        <f>C31</f>
-        <v>1.8</v>
-      </c>
-      <c r="D37" s="327"/>
+      <c r="C37" s="374">
+        <f>E31</f>
+        <v>1.6</v>
+      </c>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="371" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
         <v>2.8814594021220161</v>
       </c>
-      <c r="J37" s="325"/>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="374">
         <f>E34</f>
         <v>1.7</v>
       </c>
-      <c r="D38" s="327"/>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
+      <c r="G38" s="371" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
         <v>2.240302725773109</v>
       </c>
-      <c r="J38" s="325"/>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12437,14 +12437,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12461,38 +12485,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -17323,7 +17323,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>624702</v>
       </c>
@@ -17346,7 +17346,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17362,7 +17362,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17440,11 +17440,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>-3872117.7906354507</v>
       </c>
-      <c r="E63" s="376"/>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20276,7 +20276,7 @@
         <f>C17*Data!C4/Common_Shares</f>
         <v>-0.30966312408295993</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20299,7 +20299,7 @@
         <f>C18*Data!C4/Common_Shares</f>
         <v>3.1555628913551407E-4</v>
       </c>
-      <c r="E18" s="355"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Common_Shares)</f>
         <v>2.9541328518459768</v>
@@ -20751,7 +20751,7 @@
       <c r="E40" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="323"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>2.7587535166510064</v>

--- a/financial_models/Opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/9959.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F022FF-AFA8-4195-89B0-35F4059A3704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{970D434A-8BAD-4CD8-8033-5D82C0DE79EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36465" yWindow="8235" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3099,84 +3099,39 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3184,6 +3139,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3200,9 +3156,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3215,6 +3178,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3227,26 +3199,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10559,33 +10559,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10596,10 +10596,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>45177</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10607,10 +10607,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>2017360000</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10633,11 +10633,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
-        <v>3590.9007999999999</v>
-      </c>
-      <c r="J6" s="361"/>
+        <v>3490.0328</v>
+      </c>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
-        <v>1.7664268112637976E-2</v>
+        <v>1.8104716463718102E-2</v>
       </c>
       <c r="E7" s="93"/>
       <c r="F7" s="6"/>
@@ -10701,47 +10701,47 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.33277084968657644</v>
+        <v>0.32467525910797179</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.5849840754037978</v>
+        <v>3.4977692146892188</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>396</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="226">
-        <v>1.0838026603062947</v>
+        <v>1.0796236594518025</v>
       </c>
       <c r="J12" s="227" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -10760,7 +10760,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>2.8003784072163862</v>
+        <v>2.7829109045131037</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10802,30 +10802,30 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>1.78</v>
-      </c>
-      <c r="C16" s="347">
+        <v>1.73</v>
+      </c>
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.41879741692248107</v>
-      </c>
-      <c r="E16" s="341" t="s">
+        <v>0.45958770843541386</v>
+      </c>
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>3.1256866846314058</v>
-      </c>
-      <c r="G16" s="341" t="s">
+        <v>3.1136261588382497</v>
+      </c>
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-1.3456866846314057</v>
-      </c>
-      <c r="I16" s="336">
+        <v>-1.3836261588382497</v>
+      </c>
+      <c r="I16" s="367">
         <v>0</v>
       </c>
       <c r="J16" s="166">
@@ -10836,21 +10836,21 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>2.4012161684350137</v>
-      </c>
-      <c r="C17" s="348"/>
+        <v>2.3925722796610551</v>
+      </c>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.72447051619639202</v>
-      </c>
-      <c r="I17" s="337"/>
+        <v>-0.72105387917719455</v>
+      </c>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>0</v>
@@ -10861,19 +10861,19 @@
         <f>C37</f>
         <v>1.6</v>
       </c>
-      <c r="C18" s="349"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.60091212632626001</v>
-      </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+        <v>0.59442920974579105</v>
+      </c>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-1.5256866846314057</v>
-      </c>
-      <c r="I18" s="338"/>
+        <v>-1.5136261588382496</v>
+      </c>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>0</v>
@@ -10911,84 +10911,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>409</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>407</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>412</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>413</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="369" t="s">
+      <c r="C24" s="321" t="s">
         <v>410</v>
       </c>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="370" t="s">
+      <c r="C25" s="322" t="s">
         <v>411</v>
       </c>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11028,214 +11028,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355">
+      <c r="C28" s="341">
         <v>45180</v>
       </c>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>8.1818181818181818E-2</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
         <v>0.15454545454545454</v>
       </c>
-      <c r="J29" s="344"/>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>30000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349">
         <v>30000</v>
       </c>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>60000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>1.8</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323">
+      <c r="D31" s="339"/>
+      <c r="E31" s="363">
         <v>1.6</v>
       </c>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>3631.248</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>3227.7759999999998</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>54000</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>48000</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
         <v>102000</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.7</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.7</v>
       </c>
-      <c r="J34" s="328"/>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>3429.5120000000002</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>3429.5120000000002</v>
       </c>
-      <c r="J35" s="324"/>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>E31</f>
         <v>1.6</v>
       </c>
-      <c r="D37" s="375"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
-        <v>2.8814594021220161</v>
-      </c>
-      <c r="J37" s="373"/>
+        <v>2.8710867355932659</v>
+      </c>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
         <v>1.7</v>
       </c>
-      <c r="D38" s="375"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
-        <v>2.240302725773109</v>
-      </c>
-      <c r="J38" s="373"/>
+        <v>2.2263287236104832</v>
+      </c>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11359,11 +11359,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.60081077895667567</v>
+        <v>0.59504818644070312</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.69497611889530364</v>
+        <v>0.68887455034897993</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11378,11 +11378,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>0.2446126254295049</v>
+        <v>0.23684929089471285</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>0.3178251328077113</v>
+        <v>0.30960513153557834</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11407,11 +11407,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.6831309325184719</v>
+        <v>0.68177833981339542</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.69986871725015543</v>
+        <v>0.69843656026830969</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -12437,6 +12437,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12453,46 +12493,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -16213,7 +16213,7 @@
       </c>
       <c r="I4" s="139">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>5.0497829840065851</v>
+        <v>5.0303116833925046</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -16233,11 +16233,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="193">
         <f>E49-I49-E53</f>
-        <v>5135066.74063545</v>
+        <v>5135051.2537706727</v>
       </c>
       <c r="E6" s="149">
         <f>1-D6/D3</f>
-        <v>0.45357748961805933</v>
+        <v>0.45357913757551682</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16258,7 +16258,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.7587535166510064</v>
+        <v>2.748107837008992</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -17283,11 +17283,11 @@
       </c>
       <c r="D53" s="54">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0.33277084968657639</v>
+        <v>0.32467525910797179</v>
       </c>
       <c r="E53" s="51">
         <f>MAX(C53,C53*Dashboard!I10)</f>
-        <v>-636.59063545042068</v>
+        <v>-621.10377067355</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -17323,7 +17323,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>624702</v>
       </c>
@@ -17346,7 +17346,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17362,7 +17362,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17440,11 +17440,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>-3872117.7906354507</v>
-      </c>
-      <c r="E63" s="350"/>
+        <v>-3972970.3037706739</v>
+      </c>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20241,7 +20241,7 @@
       </c>
       <c r="G15" s="199">
         <f>C15+C16+C17+C18</f>
-        <v>5818065.8906354504</v>
+        <v>5818050.4037706731</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -20261,7 +20261,7 @@
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Common_Shares</f>
-        <v>2.8839998268209195</v>
+        <v>2.8839921500231358</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20276,7 +20276,7 @@
         <f>C17*Data!C4/Common_Shares</f>
         <v>-0.30966312408295993</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20293,20 +20293,20 @@
       </c>
       <c r="C18" s="51">
         <f>-Asset_Model!E53</f>
-        <v>636.59063545042068</v>
+        <v>621.10377067355</v>
       </c>
       <c r="D18" s="106">
         <f>C18*Data!C4/Common_Shares</f>
-        <v>3.1555628913551407E-4</v>
-      </c>
-      <c r="E18" s="342"/>
+        <v>3.0787949135184099E-4</v>
+      </c>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Common_Shares)</f>
         <v>2.9541328518459768</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>-7.0133025025057305E-2</v>
+        <v>-7.0140701822840976E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20365,11 +20365,11 @@
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>2.7590680538539081</v>
+        <v>2.7590603770561239</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>2.9902852967329765</v>
+        <v>2.9787468609258028</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20387,11 +20387,11 @@
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>2.7590680538539081</v>
+        <v>2.7590603770561239</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>2.9902852967329765</v>
+        <v>2.9787468609258028</v>
       </c>
       <c r="I23" s="43"/>
     </row>
@@ -20404,7 +20404,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>2.9902852967329765</v>
+        <v>2.9787468609258028</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20751,10 +20751,10 @@
       <c r="E40" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>2.7587535166510064</v>
+        <v>2.748107837008992</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20766,7 +20766,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>2.6628596251526484</v>
+        <v>2.641098660214253</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20795,7 +20795,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>2.8003784072163862</v>
+        <v>2.7829109045131037</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20803,15 +20803,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>2.4506727156342794</v>
+        <v>2.9623636097698625</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.52353050674906654</v>
+        <v>0.52227879710820357</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">(C44*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>5.6400629185255022</v>
+        <v>5.6265780861438515</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20828,15 +20828,15 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-3.3995890139541789</v>
+        <v>-3.399813996009744</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.59408493582822208</v>
+        <v>0.5963845162725111</v>
       </c>
       <c r="G45" s="223">
         <f>(C45*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>6.042107992253591</v>
+        <v>6.0654957480159863</v>
       </c>
       <c r="I45" s="43"/>
     </row>
@@ -20846,7 +20846,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.8814594021220161</v>
+        <v>2.8710867355932659</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20854,15 +20854,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>7.4451612100931097E-2</v>
+        <v>0.37821585876928326</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.57061054133376177</v>
+        <v>0.57075722466107093</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">(C46*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>5.8033629609718966</v>
+        <v>5.8048547956420169</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20871,7 +20871,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>2.240302725773109</v>
+        <v>2.2263287236104832</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20879,15 +20879,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>18.864675224734309</v>
+        <v>19.273982943631658</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.4436433670255695</v>
+        <v>0.44258265963134502</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">(C47*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>4.512050334820402</v>
+        <v>4.5012624689150815</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
